--- a/One Formate for both.xlsx
+++ b/One Formate for both.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="351">
   <si>
     <t>Variable</t>
   </si>
@@ -188,9 +188,6 @@
     <t>جيڪڏهن نه ته ڪهڙي عمر ۾ ماهواري بند ٿي</t>
   </si>
   <si>
-    <t>f3a04a</t>
-  </si>
-  <si>
     <t>Years</t>
   </si>
   <si>
@@ -1068,6 +1065,18 @@
   </si>
   <si>
     <t>Skip On xml</t>
+  </si>
+  <si>
+    <t>Min Ragne</t>
+  </si>
+  <si>
+    <t>Max Range</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>f3a04x</t>
   </si>
 </sst>
 </file>
@@ -1433,11 +1442,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1450,10 +1459,12 @@
     <col min="6" max="6" width="9.54296875" style="4" customWidth="1"/>
     <col min="7" max="7" width="68.90625" style="4" customWidth="1"/>
     <col min="8" max="8" width="89.90625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="4"/>
+    <col min="9" max="9" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,10 +1478,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1478,8 +1489,14 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1499,7 +1516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -1519,7 +1536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -1539,7 +1556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1561,7 +1578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1583,7 +1600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1605,7 +1622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1618,7 +1635,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1638,7 +1655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1660,7 +1677,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -1682,7 +1699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1704,7 +1721,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -1715,7 +1732,9 @@
         <v>40</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3" t="s">
         <v>37</v>
@@ -1724,7 +1743,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1737,7 +1756,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -1757,7 +1776,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>44</v>
@@ -1777,7 +1796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>45</v>
@@ -1797,7 +1816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
@@ -1819,7 +1838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
@@ -1841,7 +1860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
@@ -1852,8 +1871,12 @@
         <v>40</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G20" s="3" t="s">
         <v>37</v>
       </c>
@@ -1861,7 +1884,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1874,7 +1897,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -1894,27 +1917,33 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="I23" s="4">
+        <v>2015</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>26</v>
       </c>
@@ -1927,12 +1956,12 @@
       <c r="G24" s="3"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>7</v>
@@ -1941,21 +1970,21 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -1963,21 +1992,21 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="6" t="s">
+    </row>
+    <row r="27" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
@@ -1985,21 +2014,21 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="6" t="s">
+    </row>
+    <row r="28" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
@@ -2007,21 +2036,21 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="6" t="s">
+    </row>
+    <row r="29" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="5">
         <v>4</v>
@@ -2029,21 +2058,21 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="6" t="s">
+    </row>
+    <row r="30" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="B30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="5">
         <v>5</v>
@@ -2051,21 +2080,21 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="6" t="s">
+    </row>
+    <row r="31" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="B31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="5">
         <v>6</v>
@@ -2073,21 +2102,21 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="6" t="s">
+    </row>
+    <row r="32" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="B32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="5">
         <v>7</v>
@@ -2095,21 +2124,21 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="5">
         <v>8</v>
@@ -2117,21 +2146,21 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="5">
         <v>96</v>
@@ -2139,41 +2168,45 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="E35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="5">
         <v>97</v>
@@ -2181,21 +2214,21 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="5">
         <v>99</v>
@@ -2224,10 +2257,10 @@
     </row>
     <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>7</v>
@@ -2236,18 +2269,18 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>11</v>
@@ -2258,18 +2291,18 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>11</v>
@@ -2280,18 +2313,18 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>11</v>
@@ -2302,18 +2335,18 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>11</v>
@@ -2324,18 +2357,18 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>11</v>
@@ -2346,18 +2379,18 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>11</v>
@@ -2376,10 +2409,10 @@
     </row>
     <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>11</v>
@@ -2411,10 +2444,10 @@
     </row>
     <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>7</v>
@@ -2423,18 +2456,18 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>11</v>
@@ -2445,18 +2478,18 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>11</v>
@@ -2467,18 +2500,18 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>11</v>
@@ -2489,10 +2522,10 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -2510,10 +2543,10 @@
     </row>
     <row r="53" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>7</v>
@@ -2522,21 +2555,21 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
@@ -2544,21 +2577,21 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
@@ -2566,21 +2599,21 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" s="5">
         <v>3</v>
@@ -2588,21 +2621,21 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="5">
         <v>4</v>
@@ -2610,21 +2643,21 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D58" s="5">
         <v>5</v>
@@ -2632,21 +2665,21 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" s="5">
         <v>96</v>
@@ -2654,45 +2687,45 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H59" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="5">
         <v>98</v>
@@ -2700,10 +2733,10 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H61" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -2721,10 +2754,10 @@
     </row>
     <row r="63" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>7</v>
@@ -2733,21 +2766,21 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" s="5">
         <v>1</v>
@@ -2755,21 +2788,21 @@
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" s="5">
         <v>2</v>
@@ -2777,21 +2810,21 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D66" s="5">
         <v>3</v>
@@ -2799,21 +2832,21 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H66" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D67" s="5">
         <v>4</v>
@@ -2821,21 +2854,21 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D68" s="5">
         <v>5</v>
@@ -2843,21 +2876,21 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D69" s="5">
         <v>6</v>
@@ -2865,21 +2898,21 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D70" s="5">
         <v>7</v>
@@ -2887,21 +2920,21 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D71" s="5">
         <v>8</v>
@@ -2909,21 +2942,21 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D72" s="5">
         <v>9</v>
@@ -2931,21 +2964,21 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D73" s="5">
         <v>96</v>
@@ -2953,41 +2986,45 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
+      <c r="E74" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="G74" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D75" s="5">
         <v>99</v>
@@ -3016,10 +3053,10 @@
     </row>
     <row r="77" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>7</v>
@@ -3028,18 +3065,18 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>11</v>
@@ -3050,18 +3087,18 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>11</v>
@@ -3072,18 +3109,18 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>11</v>
@@ -3094,18 +3131,18 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>11</v>
@@ -3116,18 +3153,18 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>11</v>
@@ -3138,18 +3175,18 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>11</v>
@@ -3160,18 +3197,18 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>11</v>
@@ -3182,18 +3219,18 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>11</v>
@@ -3204,18 +3241,18 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H85" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>11</v>
@@ -3226,18 +3263,18 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>11</v>
@@ -3248,18 +3285,18 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>11</v>
@@ -3270,38 +3307,42 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="E89" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="G89" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>11</v>
@@ -3312,18 +3353,18 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>11</v>
@@ -3355,10 +3396,10 @@
     </row>
     <row r="93" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>7</v>
@@ -3367,18 +3408,18 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H93" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>11</v>
@@ -3389,18 +3430,18 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H94" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>11</v>
@@ -3411,18 +3452,18 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H95" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>11</v>
@@ -3433,18 +3474,18 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H96" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>11</v>
@@ -3455,18 +3496,18 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H97" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>11</v>
@@ -3477,38 +3518,42 @@
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
+      <c r="E99" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="G99" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>11</v>
@@ -3522,7 +3567,7 @@
         <v>24</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -3540,10 +3585,10 @@
     </row>
     <row r="102" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>7</v>
@@ -3554,18 +3599,18 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H102" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>11</v>
@@ -3576,18 +3621,18 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H103" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>11</v>
@@ -3598,18 +3643,18 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H104" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>11</v>
@@ -3620,18 +3665,18 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H105" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>11</v>
@@ -3650,10 +3695,10 @@
     </row>
     <row r="107" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>11</v>
@@ -3664,30 +3709,34 @@
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
+      <c r="E108" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="G108" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -3705,10 +3754,10 @@
     </row>
     <row r="110" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>7</v>
@@ -3717,18 +3766,18 @@
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H110" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>11</v>
@@ -3739,18 +3788,18 @@
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H111" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>11</v>
@@ -3761,18 +3810,18 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H112" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>11</v>
@@ -3783,18 +3832,18 @@
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H113" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>11</v>
@@ -3805,18 +3854,18 @@
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H114" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>11</v>
@@ -3827,18 +3876,18 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H115" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>11</v>
@@ -3849,18 +3898,18 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H116" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>11</v>
@@ -3892,10 +3941,10 @@
     </row>
     <row r="119" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>7</v>
@@ -3904,21 +3953,21 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H119" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D120" s="5">
         <v>1</v>
@@ -3926,21 +3975,21 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H120" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D121" s="5">
         <v>2</v>
@@ -3948,21 +3997,21 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H121" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D122" s="5">
         <v>3</v>
@@ -3970,21 +4019,21 @@
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H122" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D123" s="5">
         <v>96</v>
@@ -3992,18 +4041,18 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H123" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>40</v>
@@ -4012,27 +4061,31 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H124" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D125" s="5">
         <v>99</v>
       </c>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
+      <c r="E125" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="G125" s="3" t="s">
         <v>24</v>
       </c>
@@ -4055,10 +4108,10 @@
     </row>
     <row r="127" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>7</v>
@@ -4067,18 +4120,18 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H127" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>11</v>
@@ -4089,18 +4142,18 @@
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H128" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>11</v>
@@ -4111,18 +4164,18 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H129" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>11</v>
@@ -4133,18 +4186,18 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H130" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>11</v>
@@ -4155,18 +4208,18 @@
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H131" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>11</v>
@@ -4198,10 +4251,10 @@
     </row>
     <row r="134" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>7</v>
@@ -4210,21 +4263,21 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H134" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="H134" s="6" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D135" s="5">
         <v>1</v>
@@ -4232,21 +4285,21 @@
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H135" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D136" s="5">
         <v>2</v>
@@ -4254,21 +4307,21 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H136" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D137" s="5">
         <v>3</v>
@@ -4276,40 +4329,44 @@
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H137" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D138" s="5">
         <v>96</v>
       </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
+      <c r="E138" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="G138" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>40</v>
@@ -4318,10 +4375,10 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -4339,10 +4396,10 @@
     </row>
     <row r="141" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>7</v>
@@ -4351,21 +4408,21 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H141" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D142" s="5">
         <v>1</v>
@@ -4373,21 +4430,21 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H142" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D143" s="5">
         <v>2</v>
@@ -4395,21 +4452,21 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H143" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D144" s="5">
         <v>3</v>
@@ -4417,21 +4474,21 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H144" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="H144" s="6" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D145" s="5">
         <v>4</v>
@@ -4439,63 +4496,69 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H145" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D146" s="5">
         <v>96</v>
       </c>
       <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
+      <c r="F146" s="3" t="s">
+        <v>339</v>
+      </c>
       <c r="G146" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H146" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="H146" s="6" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
+      <c r="E147" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>339</v>
+      </c>
       <c r="G147" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H147" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D148" s="5">
         <v>99</v>
@@ -4511,13 +4574,13 @@
     </row>
     <row r="149" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D149" s="5">
         <v>97</v>
@@ -4525,10 +4588,10 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H149" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
